--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>955778.904222534</v>
+        <v>953343.2672988273</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673456</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>24.6214982250919</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>323.8490908462643</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>159.617342461578</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620232</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>407.8895948559971</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>266.8321196145413</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>110.787406543742</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,7 +1111,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>32.85881373760815</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.49442595689656</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1184,16 +1184,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>270.5139490778467</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>106.2491738808025</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,13 +1348,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>222.1526784153806</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>276.083059332979</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>390.2132312008176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238052</v>
+        <v>22.60777203238021</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114117</v>
+        <v>97.97552699114098</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458129</v>
+        <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035351</v>
+        <v>9.753166794035195</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>34.38537463060777</v>
+        <v>124.1004521009526</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034047</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146352</v>
+        <v>79.00824149146337</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.981365633718</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1658,7 +1658,7 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>148.905530700185</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>86.27179222793495</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>8.172193132421398</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417117</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495696148</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128543</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>36.43062059490695</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833878</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016438</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106825156</v>
       </c>
       <c r="D22" t="n">
-        <v>43.73846614325537</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465672</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,10 +2485,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>26.70391688093796</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890329</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187882</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740349</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>107.402108275629</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892388</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046969</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>26.13627195705929</v>
+        <v>66.37524671012255</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3041,10 +3041,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187841</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>122.4116053749567</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856558</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272966</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710038</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T36" t="n">
         <v>188.3046392154443</v>
@@ -3430,16 +3430,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>192.817050818436</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3667,10 +3667,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856558</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>26.13627195705739</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187862</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717408</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T42" t="n">
         <v>188.3046392154443</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833696</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>41.0268615654843</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012174</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892457</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T45" t="n">
         <v>188.3046392154443</v>
@@ -4138,13 +4138,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>36.4306205949029</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.318139675982</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794323</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524209</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X2" t="n">
-        <v>2403.038273524209</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y2" t="n">
-        <v>2075.917979740103</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228003</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031472</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158125</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992583</v>
@@ -4425,31 +4425,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601528</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W4" t="n">
-        <v>1222.27755415817</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X4" t="n">
-        <v>994.2880032601528</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y4" t="n">
-        <v>994.2880032601528</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1210.83606070513</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>825.0478081068854</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>818.102307357682</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>2739.810011970445</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W5" t="n">
-        <v>2739.810011970445</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X5" t="n">
-        <v>2366.344253709365</v>
+        <v>2345.840931351814</v>
       </c>
       <c r="Y5" t="n">
-        <v>1976.204921733553</v>
+        <v>1955.701599376002</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>809.1878876062117</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C7" t="n">
-        <v>640.2517046783048</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D7" t="n">
-        <v>640.2517046783048</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>492.3386110959117</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415546</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1326.59460854119</v>
+        <v>1101.718003420938</v>
       </c>
       <c r="W7" t="n">
-        <v>1037.177438504229</v>
+        <v>812.300833383977</v>
       </c>
       <c r="X7" t="n">
-        <v>809.1878876062117</v>
+        <v>584.3112824859596</v>
       </c>
       <c r="Y7" t="n">
-        <v>809.1878876062117</v>
+        <v>363.5187033424295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794326</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794326</v>
+        <v>2688.538263200155</v>
       </c>
       <c r="W8" t="n">
-        <v>2755.806928794326</v>
+        <v>2335.769607930041</v>
       </c>
       <c r="X8" t="n">
-        <v>2382.341170533246</v>
+        <v>1962.303849668961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1992.201838557434</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>678.6720730524787</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>509.7358901245718</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D10" t="n">
-        <v>359.6192507122361</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>359.6192507122361</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1819.972150229096</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1598.205534798622</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1309.102667924266</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1309.102667924266</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1309.102667924266</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>1081.113117026249</v>
+        <v>456.2408785036204</v>
       </c>
       <c r="Y10" t="n">
-        <v>860.3205378827184</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2311.998004729277</v>
+        <v>1535.258832689354</v>
       </c>
       <c r="C11" t="n">
-        <v>1943.035487788866</v>
+        <v>1256.387055585335</v>
       </c>
       <c r="D11" t="n">
-        <v>1584.769789182115</v>
+        <v>898.1213569785843</v>
       </c>
       <c r="E11" t="n">
-        <v>1198.981536583871</v>
+        <v>512.33310438034</v>
       </c>
       <c r="F11" t="n">
-        <v>787.9956317942633</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="G11" t="n">
-        <v>393.840852803538</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907326</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469167</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386824</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420305</v>
+        <v>704.5155104420323</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301222</v>
+        <v>1232.419981301225</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878106</v>
+        <v>1851.484858878111</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.18066176542</v>
+        <v>2485.180661765427</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687095</v>
+        <v>3070.226377687103</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856276</v>
+        <v>3535.048359856286</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882234</v>
+        <v>3835.937563882243</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234584</v>
+        <v>3925.553311234594</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455654</v>
+        <v>3826.588132455664</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971433</v>
+        <v>3622.786021971444</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604042</v>
+        <v>3369.295305604052</v>
       </c>
       <c r="V11" t="n">
-        <v>3038.232418260472</v>
+        <v>3038.232418260482</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.463762990357</v>
+        <v>2685.463762990367</v>
       </c>
       <c r="X11" t="n">
-        <v>2311.998004729277</v>
+        <v>2311.998004729287</v>
       </c>
       <c r="Y11" t="n">
-        <v>2311.998004729277</v>
+        <v>1921.858672753476</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503042</v>
+        <v>88.36274985503047</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469167</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469167</v>
+        <v>196.812062379213</v>
       </c>
       <c r="K12" t="n">
-        <v>358.8611360831285</v>
+        <v>477.1621322376506</v>
       </c>
       <c r="L12" t="n">
-        <v>782.1489435104374</v>
+        <v>900.4499396649603</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282818</v>
+        <v>1413.76371390885</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279348</v>
+        <v>1955.072021259917</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145096</v>
+        <v>1991.670362601622</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.97904598525</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>203.8650582458516</v>
+        <v>203.8650582458561</v>
       </c>
       <c r="C13" t="n">
-        <v>203.8650582458515</v>
+        <v>203.8650582458561</v>
       </c>
       <c r="D13" t="n">
-        <v>169.132356598773</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="E13" t="n">
-        <v>169.132356598773</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="F13" t="n">
-        <v>169.132356598773</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="G13" t="n">
-        <v>169.132356598773</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="H13" t="n">
-        <v>169.132356598773</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469167</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600397</v>
+        <v>139.0818334600401</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457697</v>
+        <v>368.4550473457705</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888905</v>
+        <v>717.5002252888919</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779219</v>
+        <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542992</v>
+        <v>1470.753784542994</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715846</v>
+        <v>1800.967734715849</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082518</v>
+        <v>2060.002133082522</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551102</v>
+        <v>2155.909043551106</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.10273901427</v>
+        <v>2076.102739014274</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370152</v>
+        <v>1888.302075370157</v>
       </c>
       <c r="T13" t="n">
-        <v>1667.488017920198</v>
+        <v>1667.488017920202</v>
       </c>
       <c r="U13" t="n">
-        <v>1378.397311360486</v>
+        <v>1378.397311360491</v>
       </c>
       <c r="V13" t="n">
-        <v>1123.712823154599</v>
+        <v>1123.712823154604</v>
       </c>
       <c r="W13" t="n">
-        <v>834.2956531176387</v>
+        <v>834.2956531176433</v>
       </c>
       <c r="X13" t="n">
-        <v>606.3061022196214</v>
+        <v>606.3061022196259</v>
       </c>
       <c r="Y13" t="n">
-        <v>385.5135230760912</v>
+        <v>385.5135230760958</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5261,13 +5261,13 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
         <v>92.81162322608056</v>
@@ -5276,19 +5276,19 @@
         <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251937</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128756</v>
+        <v>841.9378825128767</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
         <v>3602.609239333934</v>
@@ -5306,22 +5306,22 @@
         <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>93.85065580060315</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K15" t="n">
-        <v>301.0525042748304</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L15" t="n">
-        <v>791.7848371185818</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>1383.80319137071</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="N15" t="n">
-        <v>2005.899154770046</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O15" t="n">
-        <v>2552.77562977024</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.5125670724608</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>787.5763841445539</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="D16" t="n">
-        <v>637.459744732218</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="E16" t="n">
-        <v>489.546651149825</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F16" t="n">
-        <v>342.6567036519149</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
         <v>92.81162322608056</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410168</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2420.121033872369</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>2131.044820187095</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1876.360331981208</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1586.943161944248</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1358.953611046231</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.1610319027</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5501,43 +5501,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.816663047972</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014784</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355943</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068016</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694714</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852262</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.8331523986</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5577,37 +5577,37 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.816663047972</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.816663047972</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.816663047972</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.741435219193</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>427.741435219193</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438151</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998423</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.53682323771</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.754138832767</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048601</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925243</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310024</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.816663047972</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.816663047972</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.816663047972</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.741944003835</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797753</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580263</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580263</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603204</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947402</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741515</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704554</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806537</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630067</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,28 +5744,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,16 +5783,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.07903472198</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2253.988764961267</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327645</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048576</v>
+        <v>559.0424953278188</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>408.925855915483</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5935,25 +5935,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630042</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5966,28 +5966,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075811</v>
@@ -5996,40 +5996,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921476</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898186995</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
         <v>2516.421633107662</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.6461798836068</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C25" t="n">
-        <v>565.7099969556999</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D25" t="n">
-        <v>415.5933575433642</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E25" t="n">
-        <v>267.6802639609711</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F25" t="n">
-        <v>120.7903164630607</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.28419561186</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138465</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138465</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961526</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.652278938886</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133953</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K28" t="n">
         <v>435.7419440038341</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2338.47610552407</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2338.47610552407</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6455,31 +6455,31 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6540,22 +6540,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057243</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778174</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654816</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830886</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,7 +6622,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797745</v>
@@ -6634,37 +6634,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2420.562808876161</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168584</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797182</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273892</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803934</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516138</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516138</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578165</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1804.131916132771</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327543</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C34" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D34" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797739</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580259</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603191</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947389</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741502</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704541</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806524</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603662994</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551871</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111699</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075789</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068006</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694703</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852251</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.83315239859</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492574</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.25260147478</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612122999</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852884</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591805</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615993</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.8166630479718</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756264</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>352.5519571452628</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452628</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718142</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.528408326421</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057737</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797739</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580259</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.963083580259</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924457</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.20336871857</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681609</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.228921741679</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7148,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638193094</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111762</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075851</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332391</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7251,22 +7251,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191922</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191922</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1025.119922845744</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1652.71788640035</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>956.9553291057239</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C40" t="n">
-        <v>788.019146177817</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654811</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830881</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851781</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>94.65038286230589</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>94.65038286230589</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910808</v>
@@ -7345,7 +7345,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.76484885336</v>
@@ -7357,25 +7357,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T40" t="n">
-        <v>2420.562808876161</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>2131.487582220358</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1876.803094014472</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1587.385923977511</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1359.396373079494</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1138.603793935963</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797177</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
         <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068006</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694703</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852251</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398589</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492573</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474779</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466568</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612122997</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7476,40 +7476,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797179</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797179</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797179</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191921</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349506</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061502</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493493</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.309900062208</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343012</v>
+        <v>344.9174178121632</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2570777219653</v>
+        <v>194.8007783998273</v>
       </c>
       <c r="E43" t="n">
-        <v>449.3439841395723</v>
+        <v>194.8007783998273</v>
       </c>
       <c r="F43" t="n">
-        <v>302.4540366416618</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>135.2579373565418</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797179</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797179</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797738</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580242</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832645</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832645</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832645</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176843</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970956</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494933995</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035978</v>
+        <v>916.2946447138399</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892448</v>
+        <v>695.5020655703098</v>
       </c>
     </row>
     <row r="44">
@@ -7634,40 +7634,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638193094</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111762</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075851</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332391</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239593</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>429.5088224239593</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1026.887310050511</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>1654.485273605117</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2206.395003844404</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327634</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048565</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925206</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
         <v>261.0127623330919</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580259</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.3616186032</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947398</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741511</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806533</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.4026036630031</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>89.18983243802853</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>20.21646001283175</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806772</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23419,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>114.2300983876046</v>
+        <v>24.51502091725978</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,10 +23431,10 @@
         <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400679</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034036</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613728951</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.29152613728917</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>60.16217041863422</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>209.3098013303404</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>110.0033420516413</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>45.44677382459247</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856546</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012157</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>145.6085800303763</v>
       </c>
       <c r="D22" t="n">
-        <v>104.877006874957</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>138.8202214113309</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.4467738245929</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>73.62417772601557</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>65.54986409393098</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>40.23897475306237</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>44.83521572367108</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012174</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856558</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012174</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>32.89260457061357</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,10 +25555,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>80.44045370237485</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012174</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>191.2691783702309</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>45.44677382459429</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>99.26785128073959</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856558</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,13 +26026,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>110.0033420516663</v>
+        <v>63.36835372228738</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856558</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012174</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>996839.0591723743</v>
+        <v>996839.0591723744</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>896056.222126879</v>
+        <v>896056.2221268802</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>974804.6613008716</v>
+        <v>974804.6613008714</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>980164.8549632422</v>
+        <v>980164.8549632415</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>980164.8549632416</v>
+        <v>980164.8549632415</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>980164.8549632416</v>
+        <v>980164.8549632415</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>980164.8549632416</v>
+        <v>980164.8549632415</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>980164.8549632414</v>
+        <v>980164.8549632415</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>980164.8549632413</v>
+        <v>980164.8549632415</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>980164.8549632411</v>
+        <v>980164.8549632415</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>980164.8549632416</v>
+        <v>980164.8549632415</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>451572.9734253558</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
         <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>405380.8397795038</v>
+        <v>405380.8397795043</v>
       </c>
       <c r="F2" t="n">
-        <v>441473.874400917</v>
+        <v>441473.8744009171</v>
       </c>
       <c r="G2" t="n">
-        <v>443930.6298295037</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="H2" t="n">
-        <v>443930.6298295032</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="I2" t="n">
-        <v>443930.6298295033</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="J2" t="n">
         <v>443930.6298295035</v>
       </c>
       <c r="K2" t="n">
+        <v>443930.6298295033</v>
+      </c>
+      <c r="L2" t="n">
         <v>443930.6298295035</v>
       </c>
-      <c r="L2" t="n">
-        <v>443930.6298295031</v>
-      </c>
       <c r="M2" t="n">
-        <v>443930.6298295032</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="N2" t="n">
-        <v>443930.6298295032</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="O2" t="n">
-        <v>443930.629829503</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295032</v>
+        <v>443930.6298295034</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>4.066132532898337e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185138</v>
+        <v>143114.1392185164</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.34710514</v>
+        <v>166521.3471051376</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623558024</v>
+        <v>11167.23623557874</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.3285511527</v>
+        <v>37377.32855115355</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.4065584899</v>
+        <v>43782.40655848903</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224693</v>
+        <v>3023.297977224528</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316948</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316948</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316933</v>
+        <v>91573.95495316946</v>
       </c>
       <c r="E4" t="n">
-        <v>12287.79922451208</v>
+        <v>12287.79922451209</v>
       </c>
       <c r="F4" t="n">
         <v>12380.38756059278</v>
@@ -26476,13 +26476,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214695</v>
+        <v>86093.72216214715</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26500,13 +26500,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-1076679.667816799</v>
       </c>
       <c r="C6" t="n">
+        <v>252065.077910793</v>
+      </c>
+      <c r="D6" t="n">
         <v>252065.0779107931</v>
       </c>
-      <c r="D6" t="n">
-        <v>252065.0779107928</v>
-      </c>
       <c r="E6" t="n">
-        <v>163885.179174331</v>
+        <v>163675.2149304838</v>
       </c>
       <c r="F6" t="n">
-        <v>162430.0112213458</v>
+        <v>162384.1062257826</v>
       </c>
       <c r="G6" t="n">
-        <v>319253.9435881981</v>
+        <v>319219.2056627636</v>
       </c>
       <c r="H6" t="n">
-        <v>330421.1798237793</v>
+        <v>330386.4418983425</v>
       </c>
       <c r="I6" t="n">
-        <v>330421.179823778</v>
+        <v>330386.4418983425</v>
       </c>
       <c r="J6" t="n">
-        <v>112889.9774265008</v>
+        <v>112855.2395010651</v>
       </c>
       <c r="K6" t="n">
-        <v>330421.1798237782</v>
+        <v>330386.4418983423</v>
       </c>
       <c r="L6" t="n">
-        <v>330421.1798237786</v>
+        <v>330386.4418983425</v>
       </c>
       <c r="M6" t="n">
-        <v>293043.8512726254</v>
+        <v>293009.1133471889</v>
       </c>
       <c r="N6" t="n">
-        <v>286638.7732652881</v>
+        <v>286604.0353398536</v>
       </c>
       <c r="O6" t="n">
-        <v>327397.8818465531</v>
+        <v>327363.1439211179</v>
       </c>
       <c r="P6" t="n">
-        <v>330421.179823778</v>
+        <v>330386.4418983425</v>
       </c>
     </row>
   </sheetData>
@@ -26744,13 +26744,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494554</v>
+        <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341675</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26765,19 +26765,19 @@
         <v>1367.975500341674</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
     </row>
     <row r="4">
@@ -26787,31 +26787,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>981.388327808646</v>
+        <v>981.3883278086486</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.70828809965</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26960,19 +26960,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122.393566901256</v>
+        <v>122.3935669012581</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218315</v>
+        <v>145.8707812218295</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625289284</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-7.545122831897051e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063529</v>
+        <v>149.986872406356</v>
       </c>
       <c r="F4" t="n">
-        <v>178.756962517361</v>
+        <v>178.7569625173584</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364302</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063526</v>
+        <v>149.986872406356</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173619</v>
+        <v>178.7569625173584</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.5629977736412</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063529</v>
+        <v>149.986872406356</v>
       </c>
       <c r="N4" t="n">
-        <v>178.756962517361</v>
+        <v>178.7569625173584</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364302</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>358.1123434383887</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>62.3888478097893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983812</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>126.905655875013</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>105.0742887270139</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3.032130797456318</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>60.92013885559356</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>34.63364147918925</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>219.2788295862198</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>350.239415706584</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>57.23830939228816</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,7 +28059,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>83.51985145063941</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>3.556976973656532</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-5.614424909568487e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28728,7 +28728,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>2.090428097289987e-11</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-13</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -28965,7 +28965,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>2.017941369558685e-12</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.266542426492379e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29259,7 +29259,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>4.200699047866389e-12</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-9.226662362065036e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29487,7 +29487,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>5.343281372915953e-12</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.613654686313534e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.501110429875553e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29958,7 +29958,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>-6.012244569589532e-12</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>3.742286480701296e-12</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30207,7 +30207,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>-1.012881180482825e-11</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>5.055922180081919e-12</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>-1.448570354110731e-11</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485641</v>
+        <v>4.87304630148565</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508984</v>
+        <v>49.90608543508993</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380254</v>
+        <v>187.8681175380257</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307174</v>
+        <v>413.593713530718</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726047</v>
+        <v>619.8697634726058</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216961</v>
+        <v>769.0032542216974</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857413</v>
+        <v>855.6642913857428</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898374</v>
+        <v>869.5098341898389</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294396</v>
+        <v>821.0534800294409</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615127</v>
+        <v>700.7501494615138</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.234178789558</v>
+        <v>526.2341787895589</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356977</v>
+        <v>306.1064947356982</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951042</v>
+        <v>111.0445425951044</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475341</v>
+        <v>21.33176018475345</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188513</v>
+        <v>0.3898437041188519</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969419</v>
+        <v>2.607309631969423</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191518</v>
+        <v>25.18112197191522</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596465</v>
+        <v>89.7692132059648</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783042</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202548</v>
+        <v>421.0233277202555</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256408</v>
+        <v>566.1178216256417</v>
       </c>
       <c r="M12" t="n">
-        <v>355.5501343440833</v>
+        <v>660.6327957845331</v>
       </c>
       <c r="N12" t="n">
-        <v>678.117780114713</v>
+        <v>678.1177801147142</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431801</v>
+        <v>179.5642660017227</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205463</v>
+        <v>497.8817840205472</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071841</v>
+        <v>332.8207874071846</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533297</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697579</v>
+        <v>48.42963285697588</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780656</v>
+        <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190408</v>
+        <v>0.1715335284190411</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236081</v>
+        <v>2.185880810236085</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737172</v>
+        <v>19.43446756737175</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691781</v>
+        <v>65.73539745691792</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836909</v>
+        <v>154.5417732836912</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619738</v>
+        <v>253.9596068619742</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509171</v>
+        <v>324.9808615509176</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263704</v>
+        <v>342.646752826371</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973089</v>
+        <v>334.4993788973095</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050055</v>
+        <v>308.964316705006</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761892</v>
+        <v>264.3723481761897</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916777</v>
+        <v>183.037710391678</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570596</v>
+        <v>98.28514988570612</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929606</v>
+        <v>38.09394102929613</v>
       </c>
       <c r="T13" t="n">
-        <v>9.33967255282689</v>
+        <v>9.339672552826906</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765137</v>
+        <v>0.1192298623765139</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,28 +32075,28 @@
         <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>347.1362354129724</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
         <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>427.3161054158215</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348439</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135346</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067234</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663287</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817582</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116257</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175685</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159436</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460037</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236515</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669228</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292902</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.0736191065153</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.439951919707875</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659452</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521103</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.139188642259</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>396.9700886943639</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071792</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
-        <v>700.080820443725</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214703</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485294</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418562</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742444</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937735</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275956</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189906</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121572</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869282</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796263</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355181</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588157</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392049</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106792</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920061</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417317</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515929</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.9903120353277</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467223</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>399.0581126127089</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>362.8934092184356</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M27" t="n">
-        <v>508.8976500257889</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>173.3851399586643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420753</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422583</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862117</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071781</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>198.5607970756968</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214695</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485289</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,43 +33567,43 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121569</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420753</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>248.0319961154059</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862117</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071781</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.080820443724</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214695</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,43 +33804,43 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121569</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067282</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422583</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862117</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071781</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>351.5042614518802</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214695</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485289</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,43 +34041,43 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121569</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422583</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.883274947307</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862117</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>344.2757660550412</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.080820443724</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485289</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,43 +34278,43 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121569</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067282</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422583</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862117</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071781</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O45" t="n">
-        <v>700.080820443724</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>447.1326187913587</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,43 +34515,43 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121569</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040311</v>
+        <v>232.5478090040318</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276242</v>
+        <v>399.7799124276252</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517089</v>
+        <v>533.2368392517101</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584686</v>
+        <v>625.3180581584701</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932464</v>
+        <v>640.096770593248</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077528</v>
+        <v>590.9552686077542</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062432</v>
+        <v>469.5171537062443</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151085</v>
+        <v>303.9284889151094</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156558</v>
+        <v>90.5209569215661</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116375</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458958</v>
+        <v>283.1818887458965</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457666</v>
+        <v>427.5634418457675</v>
       </c>
       <c r="M12" t="n">
-        <v>213.416100422065</v>
+        <v>518.4987618625148</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313797</v>
+        <v>546.7760680313809</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987356</v>
+        <v>36.96802155727825</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062161</v>
+        <v>363.9073766062169</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211626</v>
+        <v>192.8390133211631</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936573</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701815</v>
+        <v>61.18259316701844</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360909</v>
+        <v>231.6901150360913</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112332</v>
+        <v>352.5708868112338</v>
       </c>
       <c r="M13" t="n">
-        <v>382.230629788211</v>
+        <v>382.2306297882116</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765375</v>
+        <v>378.6315512765381</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190452</v>
+        <v>333.5494446190457</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410827</v>
+        <v>261.6509074410832</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998332</v>
+        <v>96.87566713998361</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>209.2947964386134</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
         <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>295.9743933324882</v>
       </c>
       <c r="O15" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317483</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396424</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367777</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462697</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902958</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193527</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224317</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.587454168382</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924733</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496679</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>254.8360547723456</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238459</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992805</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071401</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625079</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789228</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295356</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096353</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191319</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010455</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899078</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060458</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>265.0837051983787</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>224.3390294385614</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M27" t="n">
-        <v>366.7636161037706</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>31.25110603664601</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243155</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774858</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754086</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641933</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238448</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>55.96455263125239</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071393</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625073</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789202</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396417</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243155</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754086</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>110.1905571410469</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641933</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238448</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992795</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071393</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236322288</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243155</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678993</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641933</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238448</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>208.9080170074358</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071393</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625073</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789202</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243155</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678993</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674328</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641933</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>212.934053971708</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992795</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625073</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789202</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998815</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236322288</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243155</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774858</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641933</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238448</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992795</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>313.1582113770285</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789202</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
